--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD05D41-49A5-4716-A1D7-AC9DF827A59A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF874C-85F2-4A49-8A5E-DCE30030565D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="2670" windowWidth="20385" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="231">
   <si>
     <t>字段名称</t>
   </si>
@@ -59,9 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>bigint(20)</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>sid</t>
   </si>
   <si>
-    <t>自增主键</t>
-  </si>
-  <si>
     <t>role_id</t>
   </si>
   <si>
@@ -768,6 +762,14 @@
   </si>
   <si>
     <t>日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,19 +1171,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -1189,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1205,10 +1207,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1218,10 +1220,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1231,10 +1233,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1244,10 +1246,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1257,10 +1259,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1269,13 +1271,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1285,10 +1287,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1298,10 +1300,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1310,13 +1312,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1326,10 +1328,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1339,10 +1341,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1389,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1417,229 +1419,229 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1701,273 +1703,273 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>500</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>1000</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>2000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>100</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>500</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2029,380 +2031,380 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>256</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
         <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
         <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
         <v>32</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2464,189 +2466,189 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>3000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2743,7 +2745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EFF47-6321-4D0D-AE86-155768276590}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2761,7 +2765,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2789,374 +2793,374 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
         <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>60</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
         <v>60</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3165,14 +3169,17 @@
     <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{A71288F5-C3BC-42BE-9965-C6F104938FD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3EDD93-7790-4BBC-A1F3-902C2FBD4339}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3190,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3221,15 +3228,17 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>32</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>59</v>
@@ -3240,17 +3249,17 @@
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>61</v>
@@ -3261,210 +3270,198 @@
         <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
@@ -3510,15 +3507,6 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3551,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3579,233 +3567,233 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>128</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3884,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3912,273 +3900,273 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>128</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>128</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>256</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4240,149 +4228,149 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4470,7 +4458,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4498,149 +4486,149 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4728,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4756,254 +4744,254 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>256</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>256</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>100</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>500</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5037,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5065,212 +5053,212 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>500</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>500</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3F27B5-C632-438A-B289-2D82D8983C5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A68BF-C808-4224-B2A9-4AA1B7744928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>参数id</t>
   </si>
   <si>
-    <t>param_val</t>
-  </si>
-  <si>
     <t>参数值</t>
   </si>
   <si>
@@ -672,6 +669,10 @@
   </si>
   <si>
     <t>最后修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,19 +1074,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -1093,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>38</v>
@@ -1109,7 +1110,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
@@ -1122,7 +1123,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>63</v>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>64</v>
@@ -1161,7 +1162,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
@@ -1173,10 +1174,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>65</v>
@@ -1189,10 +1190,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1202,10 +1203,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1214,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1230,10 +1231,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1243,10 +1244,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1293,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1356,12 +1357,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1377,15 +1378,15 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -1398,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1406,7 +1407,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
@@ -1419,15 +1420,15 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -1440,15 +1441,15 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
@@ -1461,12 +1462,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -1482,15 +1483,15 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1503,12 +1504,12 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1524,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1545,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1574,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
@@ -1623,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1651,7 +1652,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -1667,15 +1668,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
@@ -1688,12 +1689,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -1709,12 +1710,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>67</v>
@@ -1730,12 +1731,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -1751,12 +1752,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>69</v>
@@ -1772,12 +1773,12 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>69</v>
@@ -1793,12 +1794,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>69</v>
@@ -1814,12 +1815,12 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>69</v>
@@ -1835,12 +1836,12 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>69</v>
@@ -1856,12 +1857,12 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -1877,12 +1878,12 @@
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -1898,12 +1899,12 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
@@ -1919,12 +1920,12 @@
         <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1940,12 +1941,12 @@
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -1961,12 +1962,12 @@
         <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -1982,12 +1983,12 @@
         <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -2003,12 +2004,12 @@
         <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -2024,12 +2025,12 @@
         <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -2045,12 +2046,12 @@
         <v>9</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -2066,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2142,12 +2143,12 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -2163,12 +2164,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -2184,12 +2185,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -2205,12 +2206,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2226,15 +2227,15 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -2247,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2407,7 +2408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EFF47-6321-4D0D-AE86-155768276590}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I8"/>
     </sheetView>
   </sheetViews>
@@ -2455,7 +2456,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -2488,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2509,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2535,7 +2536,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -2551,12 +2552,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -2572,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2784,7 +2785,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -2800,12 +2801,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -2821,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3147,7 +3148,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -3163,12 +3164,12 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
@@ -3184,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3374,7 +3375,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -3390,12 +3391,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -3411,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3634,7 +3635,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -3650,12 +3651,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -3671,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3804,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDD11B0-A9F7-4A9F-98BF-50CFE75733F9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3868,7 +3869,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3894,7 +3895,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -3910,12 +3911,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -3931,12 +3932,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
@@ -3952,12 +3953,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>53</v>
@@ -3973,12 +3974,12 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -3994,12 +3995,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -4015,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4065,7 +4066,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
@@ -4083,10 +4084,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
@@ -4099,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4108,6 +4109,7 @@
     <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{07AD4216-8484-413B-AB58-93EE73F01F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4135,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4179,12 +4181,12 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -4200,15 +4202,15 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
@@ -4221,12 +4223,12 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -4242,12 +4244,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -4263,12 +4265,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -4284,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4334,7 +4336,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -4352,10 +4354,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
@@ -4368,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4444,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4465,12 +4467,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -4486,15 +4488,15 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -4507,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4533,7 +4535,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -4549,15 +4551,15 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4568,12 +4570,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -4589,7 +4591,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A68BF-C808-4224-B2A9-4AA1B7744928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C596242-5CD6-4299-B0D2-7D53F6706657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="198">
   <si>
     <t>字段名称</t>
   </si>
@@ -653,10 +653,6 @@
   </si>
   <si>
     <t>操作日志表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1941,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -2406,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EFF47-6321-4D0D-AE86-155768276590}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2456,34 +2452,38 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2494,14 +2494,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -2510,19 +2510,19 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -2531,19 +2531,19 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -2552,19 +2552,19 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -2573,12 +2573,12 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
@@ -2594,12 +2594,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
@@ -2615,27 +2615,6 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3672,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3805,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDD11B0-A9F7-4A9F-98BF-50CFE75733F9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3895,7 +3874,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -4286,7 +4265,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C596242-5CD6-4299-B0D2-7D53F6706657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6285C-CF37-4684-97A1-6F3749BCD2BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -484,191 +484,195 @@
     <t>月</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
+    <t>星期</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>生效日期</t>
+  </si>
+  <si>
+    <t>失效日期</t>
+  </si>
+  <si>
+    <t>is_del</t>
+  </si>
+  <si>
+    <t>逻辑删除标识:0-未删除；1-已删除</t>
+  </si>
+  <si>
+    <t>param1</t>
+  </si>
+  <si>
+    <t>附加参数1</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>附加参数2</t>
+  </si>
+  <si>
+    <t>param3</t>
+  </si>
+  <si>
+    <t>附加参数3</t>
+  </si>
+  <si>
+    <t>param4</t>
+  </si>
+  <si>
+    <t>附加参数4</t>
+  </si>
+  <si>
+    <t>param5</t>
+  </si>
+  <si>
+    <t>附加参数5</t>
+  </si>
+  <si>
+    <t>run_time</t>
+  </si>
+  <si>
+    <t>执行时间</t>
+  </si>
+  <si>
+    <t>运行时ip</t>
+  </si>
+  <si>
+    <t>is_success</t>
+  </si>
+  <si>
+    <t>是否成功</t>
+  </si>
+  <si>
+    <t>varchar(3000)</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>定时任务执行记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_user</t>
+  </si>
+  <si>
+    <t>sys_role</t>
+  </si>
+  <si>
+    <t>sys_resource</t>
+  </si>
+  <si>
+    <t>sys_user_role</t>
+  </si>
+  <si>
+    <t>sys_role_resource</t>
+  </si>
+  <si>
+    <t>sys_dept</t>
+  </si>
+  <si>
+    <t>sys_param</t>
+  </si>
+  <si>
+    <t>sys_dict</t>
+  </si>
+  <si>
+    <t>sys_login_audit</t>
+  </si>
+  <si>
+    <t>sys_operate_audit</t>
+  </si>
+  <si>
+    <t>qtz_job_log</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>day</t>
-  </si>
-  <si>
-    <t>星期</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>小时</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>秒</t>
-  </si>
-  <si>
-    <t>active_dt</t>
-  </si>
-  <si>
-    <t>生效日期</t>
-  </si>
-  <si>
-    <t>expiry_dt</t>
-  </si>
-  <si>
-    <t>失效日期</t>
-  </si>
-  <si>
-    <t>is_del</t>
-  </si>
-  <si>
-    <t>逻辑删除标识:0-未删除；1-已删除</t>
-  </si>
-  <si>
-    <t>param1</t>
-  </si>
-  <si>
-    <t>附加参数1</t>
-  </si>
-  <si>
-    <t>param2</t>
-  </si>
-  <si>
-    <t>附加参数2</t>
-  </si>
-  <si>
-    <t>param3</t>
-  </si>
-  <si>
-    <t>附加参数3</t>
-  </si>
-  <si>
-    <t>param4</t>
-  </si>
-  <si>
-    <t>附加参数4</t>
-  </si>
-  <si>
-    <t>param5</t>
-  </si>
-  <si>
-    <t>附加参数5</t>
-  </si>
-  <si>
-    <t>run_time</t>
-  </si>
-  <si>
-    <t>执行时间</t>
-  </si>
-  <si>
-    <t>运行时ip</t>
-  </si>
-  <si>
-    <t>is_success</t>
-  </si>
-  <si>
-    <t>是否成功</t>
-  </si>
-  <si>
-    <t>varchar(3000)</t>
-  </si>
-  <si>
-    <t>信息</t>
-  </si>
-  <si>
-    <t>定时任务执行记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_user</t>
-  </si>
-  <si>
-    <t>sys_role</t>
-  </si>
-  <si>
-    <t>sys_resource</t>
-  </si>
-  <si>
-    <t>sys_user_role</t>
-  </si>
-  <si>
-    <t>sys_role_resource</t>
-  </si>
-  <si>
-    <t>sys_dept</t>
-  </si>
-  <si>
-    <t>sys_param</t>
-  </si>
-  <si>
-    <t>sys_dict</t>
-  </si>
-  <si>
-    <t>sys_login_audit</t>
-  </si>
-  <si>
-    <t>sys_operate_audit</t>
-  </si>
-  <si>
-    <t>qtz_job_log</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作日志表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiry_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1061,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,19 +1074,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -1090,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>38</v>
@@ -1106,7 +1110,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
@@ -1119,7 +1123,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
@@ -1132,7 +1136,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>63</v>
@@ -1145,7 +1149,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>64</v>
@@ -1158,7 +1162,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
@@ -1170,10 +1174,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>65</v>
@@ -1186,7 +1190,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>89</v>
@@ -1211,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>109</v>
@@ -1227,10 +1231,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1240,10 +1244,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1600,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15E7093-0725-43A3-9E75-CB0A245AE43D}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1757,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>69</v>
@@ -1769,12 +1773,12 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>69</v>
@@ -1790,12 +1794,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>69</v>
@@ -1811,12 +1815,12 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>69</v>
@@ -1832,12 +1836,12 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>69</v>
@@ -1853,12 +1857,12 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -1874,12 +1878,12 @@
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -1895,12 +1899,12 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
@@ -1916,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1937,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -1963,7 +1967,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -1979,12 +1983,12 @@
         <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -2000,12 +2004,12 @@
         <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -2021,12 +2025,12 @@
         <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -2042,12 +2046,12 @@
         <v>9</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -2063,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2072,6 +2076,7 @@
     <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{B25CEAA9-4A55-486F-BBEC-1C23D411AD9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2097,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2165,7 +2170,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -2181,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2202,12 +2207,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2223,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2231,7 +2236,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -2244,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2404,9 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EFF47-6321-4D0D-AE86-155768276590}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2468,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,7 +2492,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3651,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3874,7 +3877,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -4265,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6285C-CF37-4684-97A1-6F3749BCD2BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723F7F2-2AA0-4ADD-AA5B-BF8585C65C75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="194">
   <si>
     <t>字段名称</t>
   </si>
@@ -508,12 +508,6 @@
     <t>秒</t>
   </si>
   <si>
-    <t>生效日期</t>
-  </si>
-  <si>
-    <t>失效日期</t>
-  </si>
-  <si>
     <t>is_del</t>
   </si>
   <si>
@@ -665,14 +659,6 @@
   </si>
   <si>
     <t>week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expiry_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,19 +1060,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -1094,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>38</v>
@@ -1110,7 +1096,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
@@ -1123,7 +1109,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
@@ -1136,7 +1122,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>63</v>
@@ -1149,7 +1135,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>64</v>
@@ -1162,7 +1148,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
@@ -1174,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>65</v>
@@ -1190,7 +1176,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>89</v>
@@ -1215,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>109</v>
@@ -1231,10 +1217,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1244,10 +1230,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1602,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15E7093-0725-43A3-9E75-CB0A245AE43D}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1757,7 +1743,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>69</v>
@@ -1778,7 +1764,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>69</v>
@@ -1862,35 +1848,35 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1899,33 +1885,33 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1941,19 +1927,19 @@
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>10</v>
@@ -1962,12 +1948,12 @@
         <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -1983,12 +1969,12 @@
         <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -2004,12 +1990,12 @@
         <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -2025,49 +2011,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <v>32</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2170,7 +2114,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -2186,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2207,12 +2151,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2228,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2236,7 +2180,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -2249,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2471,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2492,7 +2436,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3654,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3877,7 +3821,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -4268,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E723F7F2-2AA0-4ADD-AA5B-BF8585C65C75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B5DF39-F5A4-472C-9115-36EA6AECCCB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,11 @@
     <sheet name="sys_role_resource" sheetId="7" r:id="rId6"/>
     <sheet name="sys_param" sheetId="8" r:id="rId7"/>
     <sheet name="sys_dict" sheetId="9" r:id="rId8"/>
-    <sheet name="sys_login_audit" sheetId="10" r:id="rId9"/>
-    <sheet name="sys_operate_audit" sheetId="11" r:id="rId10"/>
-    <sheet name="qtz_job" sheetId="12" r:id="rId11"/>
-    <sheet name="qtz_job_log" sheetId="13" r:id="rId12"/>
+    <sheet name="sys_return_code" sheetId="14" r:id="rId9"/>
+    <sheet name="sys_login_audit" sheetId="10" r:id="rId10"/>
+    <sheet name="sys_operate_audit" sheetId="11" r:id="rId11"/>
+    <sheet name="qtz_job" sheetId="12" r:id="rId12"/>
+    <sheet name="qtz_job_log" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="202">
   <si>
     <t>字段名称</t>
   </si>
@@ -659,6 +660,37 @@
   </si>
   <si>
     <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_return_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>varchar(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filler1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filler2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filler3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1184,58 +1216,69 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="8" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D13" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1248,10 +1291,10 @@
     <hyperlink ref="D8" location="sys_dept!A1" display="sys_dept" xr:uid="{F3C284A5-F9F5-4D26-9877-33B681389C0A}"/>
     <hyperlink ref="D9" location="sys_param!A1" display="sys_param" xr:uid="{62B11DAD-C818-4B03-BCA4-AF6BCAA6D355}"/>
     <hyperlink ref="D10" location="sys_dict!A1" display="sys_dict" xr:uid="{ED38C2FB-59E7-4135-93F5-3198CC19967A}"/>
-    <hyperlink ref="D11" location="qtz_job!A1" display="qtz_job" xr:uid="{9A01917D-81FC-40C2-B4CD-0CC7808259DF}"/>
-    <hyperlink ref="D12" location="sys_login_audit!A1" display="sys_login_audit" xr:uid="{D8037814-37EC-40AB-B504-DEE24CB2277E}"/>
-    <hyperlink ref="D13" location="sys_operate_audit!A1" display="sys_operate_audit" xr:uid="{9475491A-7FDE-4BB0-93C8-79D3D58F58FE}"/>
-    <hyperlink ref="D14" location="qtz_job_log!A1" display="qtz_job_log" xr:uid="{3B3F5D4E-A061-4929-B89B-0AC3CC116E17}"/>
+    <hyperlink ref="D12" location="qtz_job!A1" display="qtz_job" xr:uid="{9A01917D-81FC-40C2-B4CD-0CC7808259DF}"/>
+    <hyperlink ref="D13" location="sys_login_audit!A1" display="sys_login_audit" xr:uid="{D8037814-37EC-40AB-B504-DEE24CB2277E}"/>
+    <hyperlink ref="D14" location="sys_operate_audit!A1" display="sys_operate_audit" xr:uid="{9475491A-7FDE-4BB0-93C8-79D3D58F58FE}"/>
+    <hyperlink ref="D15" location="qtz_job_log!A1" display="qtz_job_log" xr:uid="{3B3F5D4E-A061-4929-B89B-0AC3CC116E17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1259,6 +1302,290 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65404E8-D52B-400F-8809-4588F0A9811E}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="37.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{99218449-55BF-495E-98D2-D9778025EDFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52FBBE-634E-4301-91C2-31CA1AC38154}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -1586,13 +1913,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15E7093-0725-43A3-9E75-CB0A245AE43D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2024,7 +2349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6798D209-8ACC-4B85-A431-BD80B17C3CFD}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -4044,7 +4369,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4309,10 +4634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65404E8-D52B-400F-8809-4588F0A9811E}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABEC72-26E1-4983-A6E1-AE0EAD4457D3}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4330,7 +4657,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4358,13 +4685,15 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4372,19 +4701,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -4393,40 +4722,40 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -4435,19 +4764,19 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -4456,19 +4785,19 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -4477,18 +4806,20 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4496,19 +4827,19 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
@@ -4517,76 +4848,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>60</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{99218449-55BF-495E-98D2-D9778025EDFC}"/>
+    <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{0D0E82AF-42E8-4CFD-AE0F-7615D64ABA47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B5DF39-F5A4-472C-9115-36EA6AECCCB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31567E48-6DFD-4CB2-B294-00664F5AAA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="206">
   <si>
     <t>字段名称</t>
   </si>
@@ -691,6 +691,22 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1095,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65404E8-D52B-400F-8809-4588F0A9811E}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1587,9 +1605,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52FBBE-634E-4301-91C2-31CA1AC38154}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1843,14 +1863,14 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
@@ -1859,19 +1879,19 @@
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1880,27 +1900,69 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1910,6 +1972,7 @@
     <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{65F7E0E3-ED0D-4DE5-84DB-2AA1E36F8B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4637,9 +4700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABEC72-26E1-4983-A6E1-AE0EAD4457D3}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31567E48-6DFD-4CB2-B294-00664F5AAA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C872C-17A2-467F-9D23-AA0714AEF4B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="208">
   <si>
     <t>字段名称</t>
   </si>
@@ -317,9 +317,6 @@
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>dict_name</t>
-  </si>
-  <si>
     <t>数据字典信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最后修改时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -707,6 +700,22 @@
   </si>
   <si>
     <t>来源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_name_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_name_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,19 +1117,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -1128,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>38</v>
@@ -1144,7 +1153,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
@@ -1157,7 +1166,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
@@ -1170,7 +1179,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>63</v>
@@ -1183,7 +1192,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>64</v>
@@ -1196,7 +1205,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
@@ -1208,10 +1217,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>65</v>
@@ -1224,10 +1233,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1235,10 +1244,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1248,10 +1257,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1260,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1276,10 +1285,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1289,10 +1298,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1341,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1404,12 +1413,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1425,15 +1434,15 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -1446,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1472,7 +1481,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -1488,15 +1497,15 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1507,12 +1516,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1528,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1607,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52FBBE-634E-4301-91C2-31CA1AC38154}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1669,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1690,12 +1699,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1711,15 +1720,15 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -1732,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1753,12 +1762,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>78</v>
@@ -1774,15 +1783,15 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
@@ -1795,12 +1804,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -1816,15 +1825,15 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1837,12 +1846,12 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1858,12 +1867,12 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -1879,12 +1888,12 @@
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -1900,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1921,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1998,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2026,7 +2035,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -2042,15 +2051,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
@@ -2063,12 +2072,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -2084,12 +2093,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>67</v>
@@ -2105,12 +2114,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2126,12 +2135,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>69</v>
@@ -2147,12 +2156,12 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>69</v>
@@ -2168,12 +2177,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>69</v>
@@ -2189,12 +2198,12 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>69</v>
@@ -2210,12 +2219,12 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>69</v>
@@ -2231,12 +2240,12 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
@@ -2252,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2273,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2294,12 +2303,12 @@
         <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -2315,12 +2324,12 @@
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -2336,12 +2345,12 @@
         <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -2357,12 +2366,12 @@
         <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -2378,12 +2387,12 @@
         <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -2399,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,12 +2485,12 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -2497,12 +2506,12 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
@@ -2518,12 +2527,12 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -2539,12 +2548,12 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2560,15 +2569,15 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -2581,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2803,7 +2812,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2824,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2866,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3115,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3478,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3705,7 +3714,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3965,7 +3974,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3986,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4183,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4209,7 +4218,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
@@ -4429,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD37E96-A8B6-4653-A41B-0F361B38436B}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4451,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4495,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4516,7 +4525,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4537,12 +4546,12 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -4558,19 +4567,19 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -4579,19 +4588,19 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -4600,19 +4609,19 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -4621,12 +4630,12 @@
         <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -4642,19 +4651,19 @@
         <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
@@ -4663,12 +4672,12 @@
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>78</v>
@@ -4684,6 +4693,27 @@
         <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>500</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4693,6 +4723,7 @@
     <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{67871698-B96C-44FA-AD01-1CDC52FD4E2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4718,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4746,7 +4777,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>67</v>
@@ -4762,12 +4793,12 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -4783,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4804,7 +4835,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4812,7 +4843,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -4825,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4846,12 +4877,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -4867,12 +4898,12 @@
         <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -4893,7 +4924,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>78</v>

--- a/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
+++ b/详细设计/DB DESIGN/cofire/cofireDbDesign_v0.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C872C-17A2-467F-9D23-AA0714AEF4B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C68E32-D77C-419E-9F5F-7A9D9627DC61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2750,234 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087EFF47-6321-4D0D-AE86-155768276590}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="37.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>60</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{A71288F5-C3BC-42BE-9965-C6F104938FD9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3EDD93-7790-4BBC-A1F3-902C2FBD4339}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2996,7 +2770,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3024,7 +2798,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -3037,7 +2811,235 @@
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="首页!A1" display="返回首页" xr:uid="{A71288F5-C3BC-42BE-9965-C6F104938FD9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3EDD93-7790-4BBC-A1F3-902C2FBD4339}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="37.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>32</v>
@@ -4440,9 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD37E96-A8B6-4653-A41B-0F361B38436B}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
